--- a/algemeen/logboek.xlsx
+++ b/algemeen/logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thijn\Documents\school\_MA\Bewijzenmap\Leerjaar-02\Periode02\BO\algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCEB619F-A5F9-49A0-AA66-98C2F0CF24A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA0D51E-95C2-46D1-838D-83DFE00F57F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F82D63F8-D999-417B-9A2E-4237B9912B6E}"/>
   </bookViews>
@@ -34,12 +34,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>24-11</t>
   </si>
   <si>
-    <t>vandaag hebben we het idee bedacht voor wat we wouden doen. Ik heb de github en de trello opgezet. Daarnaast heb ik de excel voor het logboek aangemaakt.</t>
+    <t>25-11</t>
+  </si>
+  <si>
+    <t>vandaag heb ik het idee bedacht voor wat we wouden doen. Ik heb de github en de trello opgezet. Daarnaast heb ik de excel voor het logboek aangemaakt.</t>
+  </si>
+  <si>
+    <t>vandaag heb ik het design  begonnen en heb ik taken verdeelt onder de verschillende opleidingen.</t>
   </si>
 </sst>
 </file>
@@ -391,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C3EC51-DD40-4511-9E0A-AA63B85F0A1E}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,7 +410,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -413,15 +427,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009B53624605BA514B90E601FCC8F84C2C" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="eeab85d7fd5337f29b7ed7cf2620fc00">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1f38412d-8a22-48f7-9228-82bb31f64809" xmlns:ns4="44620454-9eac-4a64-9de0-ff4d13f91559" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35055f224573c1bf3afbb17a7434de86" ns3:_="" ns4:_="">
     <xsd:import namespace="1f38412d-8a22-48f7-9228-82bb31f64809"/>
@@ -636,6 +641,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -643,14 +657,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{997DEEDA-1B4B-42DC-B269-AE4AFA43B1DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FFFCD29-8CBD-4E28-9285-A91190A8ECED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -669,6 +675,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{997DEEDA-1B4B-42DC-B269-AE4AFA43B1DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D65F3A-8EB6-479E-8C81-FC5A2168B750}">
   <ds:schemaRefs>

--- a/algemeen/logboek.xlsx
+++ b/algemeen/logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thijn\Documents\school\_MA\Bewijzenmap\Leerjaar-02\Periode02\BO\algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA0D51E-95C2-46D1-838D-83DFE00F57F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06A49BD-8041-481D-9902-DCF8073D0720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F82D63F8-D999-417B-9A2E-4237B9912B6E}"/>
   </bookViews>
@@ -34,18 +34,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>24-11</t>
-  </si>
-  <si>
-    <t>25-11</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>vandaag heb ik het idee bedacht voor wat we wouden doen. Ik heb de github en de trello opgezet. Daarnaast heb ik de excel voor het logboek aangemaakt.</t>
   </si>
   <si>
     <t>vandaag heb ik het design  begonnen en heb ik taken verdeelt onder de verschillende opleidingen.</t>
+  </si>
+  <si>
+    <t>vandaag heb ik de lessen gevolgd voor AVO en programmeren</t>
+  </si>
+  <si>
+    <t>https://30639.hosts1.ma-cloud.nl/json_radicalespeeltuin/index.html</t>
+  </si>
+  <si>
+    <t>vandaag heb ik aan het design gewerkt en heb ik meer taken in de trello gezet.</t>
+  </si>
+  <si>
+    <t>vandaag heb ik de opdracht gemaakt die ik van ed heb gekregen.</t>
+  </si>
+  <si>
+    <t>vandaag heb ik de lessen gevolgd.</t>
+  </si>
+  <si>
+    <t>vandaag ben ik bezig geweest met de materiaal lijst maken en kijken of we het redden met de kosten.</t>
   </si>
 </sst>
 </file>
@@ -81,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,28 +410,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C3EC51-DD40-4511-9E0A-AA63B85F0A1E}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -427,6 +483,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009B53624605BA514B90E601FCC8F84C2C" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="eeab85d7fd5337f29b7ed7cf2620fc00">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1f38412d-8a22-48f7-9228-82bb31f64809" xmlns:ns4="44620454-9eac-4a64-9de0-ff4d13f91559" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35055f224573c1bf3afbb17a7434de86" ns3:_="" ns4:_="">
     <xsd:import namespace="1f38412d-8a22-48f7-9228-82bb31f64809"/>
@@ -641,15 +706,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -657,6 +713,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{997DEEDA-1B4B-42DC-B269-AE4AFA43B1DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FFFCD29-8CBD-4E28-9285-A91190A8ECED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -675,14 +739,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{997DEEDA-1B4B-42DC-B269-AE4AFA43B1DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D65F3A-8EB6-479E-8C81-FC5A2168B750}">
   <ds:schemaRefs>

--- a/algemeen/logboek.xlsx
+++ b/algemeen/logboek.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thijn\Documents\school\_MA\Bewijzenmap\Leerjaar-02\Periode02\BO\algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06A49BD-8041-481D-9902-DCF8073D0720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE4A7B8-BB70-4B8D-B680-AACFCB1676E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F82D63F8-D999-417B-9A2E-4237B9912B6E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>vandaag heb ik het idee bedacht voor wat we wouden doen. Ik heb de github en de trello opgezet. Daarnaast heb ik de excel voor het logboek aangemaakt.</t>
   </si>
@@ -58,6 +58,33 @@
   </si>
   <si>
     <t>vandaag ben ik bezig geweest met de materiaal lijst maken en kijken of we het redden met de kosten.</t>
+  </si>
+  <si>
+    <t>vandaag ben ik de lessen gevolgd en nog wat onderzoek gedaan</t>
+  </si>
+  <si>
+    <t>vandaag heb ik de lessen gevolgd van ed en ben verder gegaan met onderzoek naar het project</t>
+  </si>
+  <si>
+    <t>vandaag heb ik de informatie pagina van  onze kunstenaar gemaakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vandaag heb ik een begin gemaakt aan de form pagina </t>
+  </si>
+  <si>
+    <t>studiedag</t>
+  </si>
+  <si>
+    <t>vrij</t>
+  </si>
+  <si>
+    <t>vandaag heb ik met mijn team bedacht wat we nog meer nodig hadden qua spullen</t>
+  </si>
+  <si>
+    <t>vandaag heb ik de spullen gehaald met elisa gehaald zoals hout en kippengaas enzo</t>
+  </si>
+  <si>
+    <t>vandaag heb ik onderzoek gedaan naar database en form</t>
   </si>
 </sst>
 </file>
@@ -410,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C3EC51-DD40-4511-9E0A-AA63B85F0A1E}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,6 +502,110 @@
       </c>
       <c r="B8" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44901</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44903</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44905</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44909</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44910</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44911</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44906</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44907</v>
       </c>
     </row>
   </sheetData>

--- a/algemeen/logboek.xlsx
+++ b/algemeen/logboek.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thijn\Documents\school\_MA\Bewijzenmap\Leerjaar-02\Periode02\BO\algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE4A7B8-BB70-4B8D-B680-AACFCB1676E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEB7629-ADB1-4764-A972-579748B082E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F82D63F8-D999-417B-9A2E-4237B9912B6E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>vandaag heb ik het idee bedacht voor wat we wouden doen. Ik heb de github en de trello opgezet. Daarnaast heb ik de excel voor het logboek aangemaakt.</t>
   </si>
@@ -85,6 +85,48 @@
   </si>
   <si>
     <t>vandaag heb ik onderzoek gedaan naar database en form</t>
+  </si>
+  <si>
+    <t>vandaag heb ik een begin gemaakt met de html pagina</t>
+  </si>
+  <si>
+    <t>vandaag heb ik verder gewerkt aan de html van het qr-code idee</t>
+  </si>
+  <si>
+    <t>vandaag heb ik de form gemaakt in html</t>
+  </si>
+  <si>
+    <t>vandaag heb ik de lessen gevolgd</t>
+  </si>
+  <si>
+    <t>&lt;vakantie</t>
+  </si>
+  <si>
+    <t>vakantie&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vandaag ben ik bezig geweest met de database en de form koppelen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vandaag heb ik meegeholpen aan het bouwen van de kamer </t>
+  </si>
+  <si>
+    <t>vandaag heb ik verder gewerkt aan de database en de form</t>
+  </si>
+  <si>
+    <t>vandaag heb ik de lessen gevolgd en ben ik met hidde zn hulp de database gekoppeld en aan de mySQL gewerkt</t>
+  </si>
+  <si>
+    <t>vandaag heb ik een begin gemaakt aan het qr code systeem en vooral veel onderzoek gedaan</t>
+  </si>
+  <si>
+    <t>vandaag heb ik samen met mijn team de kamer in elkaar gezet, ze hadden hulp nodig dus ben ik niet aan mijn kant van het project gaan werken</t>
+  </si>
+  <si>
+    <t>vandaag heb ik veel gewerkt aan het systeem van de form en het bericht met mySQL en php</t>
+  </si>
+  <si>
+    <t>vandaag heb ik het qrcode systeem afgemaakt met hulp van hidde</t>
   </si>
 </sst>
 </file>
@@ -437,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C3EC51-DD40-4511-9E0A-AA63B85F0A1E}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +639,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44906</v>
+        <v>44915</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
@@ -605,7 +647,125 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44907</v>
+        <v>44916</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44917</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44918</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44919</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44922</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44578</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44579</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44580</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44581</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44582</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -614,12 +774,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -838,15 +995,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{997DEEDA-1B4B-42DC-B269-AE4AFA43B1DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D65F3A-8EB6-479E-8C81-FC5A2168B750}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="44620454-9eac-4a64-9de0-ff4d13f91559"/>
+    <ds:schemaRef ds:uri="1f38412d-8a22-48f7-9228-82bb31f64809"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -871,18 +1040,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7D65F3A-8EB6-479E-8C81-FC5A2168B750}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{997DEEDA-1B4B-42DC-B269-AE4AFA43B1DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="44620454-9eac-4a64-9de0-ff4d13f91559"/>
-    <ds:schemaRef ds:uri="1f38412d-8a22-48f7-9228-82bb31f64809"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>